--- a/LUTs/dataset_summary_new.xlsx
+++ b/LUTs/dataset_summary_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Code\Intracellular-recording-analysis\LUTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2BDB5A-B42A-4DC2-B1A3-B13027AC1D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7253F561-EFAB-4D8B-853B-193441428071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Stair" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1813,7 +1814,7 @@
   </sheetPr>
   <dimension ref="A1:Y178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <pane xSplit="1050" activePane="topRight"/>
       <selection activeCell="A123" sqref="A123"/>
       <selection pane="topRight" activeCell="F122" sqref="F122"/>
@@ -9906,8 +9907,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D132:K132 D2:K125 G126:K131 N51:O51 N57 N69 N77">
-    <cfRule type="iconSet" priority="8">
+  <conditionalFormatting sqref="D126:F131">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -9915,8 +9916,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D126:F131">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="D132:K132 D2:K125 G126:K131 N51:O51 N57 N69 N77">
+    <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
